--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4.Semester\Semesterprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4.Semester\Semesterprojekt\EE-projekt-4-gruppe-1.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t xml:space="preserve">Dato/Opgaver </t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,6 +608,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
       </c>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4.Semester\Semesterprojekt\EE-projekt-4-gruppe-1.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4.Semester\Semesterprojekt\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25603" windowHeight="12154"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t xml:space="preserve">Dato/Opgaver </t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Acceptest</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -473,26 +476,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="2"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
-    <col min="12" max="12" width="29.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.61328125" customWidth="1"/>
+    <col min="4" max="4" width="15.61328125" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" customWidth="1"/>
+    <col min="6" max="6" width="8.69140625" style="2"/>
+    <col min="7" max="7" width="10.61328125" customWidth="1"/>
+    <col min="8" max="8" width="17.4609375" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" customWidth="1"/>
+    <col min="11" max="11" width="19.53515625" customWidth="1"/>
+    <col min="12" max="12" width="29.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,7 +550,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -564,7 +567,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -581,7 +584,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -601,7 +604,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,7 +624,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -640,7 +643,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -659,7 +662,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -676,7 +679,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -693,7 +696,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -710,7 +713,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -744,7 +747,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -763,7 +766,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -780,7 +783,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -797,7 +800,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>42884</v>
       </c>
@@ -814,6 +817,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
